--- a/data/AllUniverse.xlsx
+++ b/data/AllUniverse.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>n/n0</t>
+  </si>
+  <si>
+    <t>$MeV/fm^3$</t>
+  </si>
+  <si>
+    <t>$N/m^2$</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Radius (lyr)</t>
+  </si>
+  <si>
+    <t>Density ($Kg/m^3)$</t>
+  </si>
+  <si>
+    <t>Temperature K</t>
+  </si>
+  <si>
+    <t>Time (year)</t>
+  </si>
+  <si>
+    <t>Radius (light-seconds)</t>
+  </si>
+  <si>
+    <t>Observable Volume (cubic-light-years)</t>
+  </si>
+  <si>
+    <t>HU Volume (cubic-light-years)</t>
+  </si>
+  <si>
+    <t>NeutronDensity ($1/m^3)$</t>
+  </si>
+  <si>
+    <t>Blackholium</t>
+  </si>
+  <si>
+    <t>Neutronium</t>
+  </si>
+  <si>
+    <t>PreFreezing</t>
+  </si>
+  <si>
+    <t>Freezing</t>
+  </si>
+  <si>
+    <t>PreBigBang</t>
+  </si>
+  <si>
+    <t>PostBigBang</t>
+  </si>
+  <si>
+    <t>Transparency</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,426 +430,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n/n0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>$MeV/fm^3$</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>$N/m^2$</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time (s)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Radius (lyr)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Density ($Kg/m^3)$</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature K</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Time (year)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Radius (light-seconds)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Observable Volume (cubic-light-years)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>HU Volume (cubic-light-years)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>NeutronDensity ($1/m^3)$</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Blackholium</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>4.999999999999999</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>159.3717250420627</v>
       </c>
-      <c r="D2" t="n">
-        <v>8.558276580272437e+34</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>8.558276580272437E+34</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.559614206015796e-05</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.635488470356446e+18</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="F2">
+        <v>1.559614206015796E-05</v>
+      </c>
+      <c r="G2">
+        <v>3.635488470356446E+18</v>
+      </c>
+      <c r="H2">
         <v>0.0001</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>492.176812677641</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.589059490532422e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.488266432360694e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.170534828887038e+45</v>
+      <c r="K2">
+        <v>1.589059490532422E-14</v>
+      </c>
+      <c r="L2">
+        <v>7.488266432360694E-14</v>
+      </c>
+      <c r="M2">
+        <v>2.170534828887038E+45</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Neutronium</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>55.68094541543007</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.4159774020457e+34</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>1.4159774020457E+34</v>
+      </c>
+      <c r="E3">
         <v>127.9271138850847</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.964990767874381e-05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.817744235178223e+18</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>1.964990767874381E-05</v>
+      </c>
+      <c r="G3">
+        <v>1.817744235178223E+18</v>
+      </c>
+      <c r="H3">
         <v>0.0001</v>
       </c>
-      <c r="I3" t="n">
-        <v>4.053765618585847e-06</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I3">
+        <v>4.053765618585847E-06</v>
+      </c>
+      <c r="J3">
         <v>620.1039265627256</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.178118981064843e-14</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.497653286472139e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.085267414443519e+45</v>
+      <c r="K3">
+        <v>3.178118981064843E-14</v>
+      </c>
+      <c r="L3">
+        <v>1.497653286472139E-13</v>
+      </c>
+      <c r="M3">
+        <v>1.085267414443519E+45</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>PreFreezing</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>3.686868921933399</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>99.74313801661691</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.908879693101211e+34</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>3.908879693101211E+34</v>
+      </c>
+      <c r="E4">
         <v>52.6083258538671</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.726319930956435e-05</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.680713891480874e+18</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="F4">
+        <v>1.726319930956435E-05</v>
+      </c>
+      <c r="G4">
+        <v>2.680713891480874E+18</v>
+      </c>
+      <c r="H4">
         <v>0.0001</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.66705724940639e-06</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4">
+        <v>1.66705724940639E-06</v>
+      </c>
+      <c r="J4">
         <v>544.7851385315081</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.155025747022106e-14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.015531958271226e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.60049548091953e+45</v>
+      <c r="K4">
+        <v>2.155025747022106E-14</v>
+      </c>
+      <c r="L4">
+        <v>1.015531958271226E-13</v>
+      </c>
+      <c r="M4">
+        <v>1.60049548091953E+45</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Freezing</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>0.4040412267668971</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8.983305327830628</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.246324584607658e+32</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>1.246324584607658E+32</v>
+      </c>
+      <c r="E5">
         <v>646.2433803504714</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.607435904593861e-05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.937774442919459e+17</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="F5">
+        <v>3.607435904593861E-05</v>
+      </c>
+      <c r="G5">
+        <v>2.937774442919459E+17</v>
+      </c>
+      <c r="H5">
         <v>0.0001</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.047821698578065e-05</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I5">
+        <v>2.047821698578065E-05</v>
+      </c>
+      <c r="J5">
         <v>1138.420193028112</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.966457115339364e-13</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9.266710840724286e-13</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.753971110007592e+44</v>
+      <c r="K5">
+        <v>1.966457115339364E-13</v>
+      </c>
+      <c r="L5">
+        <v>9.266710840724286E-13</v>
+      </c>
+      <c r="M5">
+        <v>1.753971110007592E+44</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>PreBigBang</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8.950540962776205e-07</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>8.950540962776205E-07</v>
+      </c>
+      <c r="C6">
         <v>0.005932960261626042</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.431295202763665e+23</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>2.431295202763665E+23</v>
+      </c>
+      <c r="E6">
         <v>86837.4067936686</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.002767307514080483</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>650791769472.5197</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.0001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.002751711372020325</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>87329.58360634625</v>
       </c>
-      <c r="K6" t="n">
-        <v>8.876890777557755e-08</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.183136228024165e-07</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.885492179417176e+38</v>
+      <c r="K6">
+        <v>8.876890777557755E-08</v>
+      </c>
+      <c r="L6">
+        <v>4.183136228024165E-07</v>
+      </c>
+      <c r="M6">
+        <v>3.885492179417176E+38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>PostBigBang</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.185987204522902e-08</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2.185987204522902E-08</v>
+      </c>
+      <c r="C7">
         <v>0.0005295609588664638</v>
       </c>
-      <c r="D7" t="n">
-        <v>5.34871945617669e+20</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>5.34871945617669E+20</v>
+      </c>
+      <c r="E7">
         <v>300504.6697985549</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.009538014507162539</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>15894262556.77946</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>3719455518.412221</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.009522418365102382</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>300996.8466112326</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.634649569870736e-06</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.712788258061882e-05</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.489522725836744e+36</v>
+      <c r="K7">
+        <v>3.634649569870736E-06</v>
+      </c>
+      <c r="L7">
+        <v>1.712788258061882E-05</v>
+      </c>
+      <c r="M7">
+        <v>9.489522725836744E+36</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Transparency</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.375914773778065e-35</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.91717850711143e-22</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.499083609664193e-25</v>
-      </c>
-      <c r="E8" t="n">
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1.375914773778065E-35</v>
+      </c>
+      <c r="C8">
+        <v>3.91717850711143E-22</v>
+      </c>
+      <c r="D8">
+        <v>2.499083609664193E-25</v>
+      </c>
+      <c r="E8">
         <v>351221133054125.4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>11129526.10637747</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.000424459252651e-17</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>1.000424459252651E-17</v>
+      </c>
+      <c r="H8">
         <v>3436.723712584069</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>11129526.10636187</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>351221133054617.6</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.774556392650269e+21</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.72119559113351e+22</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="K8">
+        <v>5.774556392650269E+21</v>
+      </c>
+      <c r="L8">
+        <v>2.72119559113351E+22</v>
+      </c>
+      <c r="M8">
         <v>5972941876.131041</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.866107774907662e-45</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.464446631379852e-28</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.845956992794114e-41</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.427999999999991e+17</v>
-      </c>
-      <c r="F9" t="n">
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>6.866107774907662E-45</v>
+      </c>
+      <c r="C9">
+        <v>2.464446631379852E-28</v>
+      </c>
+      <c r="D9">
+        <v>7.845956992794114E-41</v>
+      </c>
+      <c r="E9">
+        <v>4.427999999999991E+17</v>
+      </c>
+      <c r="F9">
         <v>14031485284.05201</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.992331130380312e-27</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>4.992331130380312E-27</v>
+      </c>
+      <c r="H9">
         <v>2.72500001169668</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>14031485284.05199</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.427999999999996e+17</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.157176338201145e+31</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.453065024500984e+31</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="J9">
+        <v>4.427999999999996E+17</v>
+      </c>
+      <c r="K9">
+        <v>1.157176338201145E+31</v>
+      </c>
+      <c r="L9">
+        <v>5.453065024500984E+31</v>
+      </c>
+      <c r="M9">
         <v>2.980625212865833</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/AllUniverse.xlsx
+++ b/data/AllUniverse.xlsx
@@ -486,7 +486,7 @@
         <v>159.3717250420627</v>
       </c>
       <c r="D2">
-        <v>8.558276580272437E+34</v>
+        <v>8.558276580272435E+34</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>1.589059490532422E-14</v>
       </c>
       <c r="L2">
-        <v>7.488266432360694E-14</v>
+        <v>7.488266432360693E-14</v>
       </c>
       <c r="M2">
         <v>2.170534828887038E+45</v>
@@ -551,7 +551,7 @@
         <v>3.178118981064843E-14</v>
       </c>
       <c r="L3">
-        <v>1.497653286472139E-13</v>
+        <v>1.497653286472138E-13</v>
       </c>
       <c r="M3">
         <v>1.085267414443519E+45</v>
@@ -703,7 +703,7 @@
         <v>15894262556.77946</v>
       </c>
       <c r="H7">
-        <v>3719455518.412221</v>
+        <v>3719455518.412223</v>
       </c>
       <c r="I7">
         <v>0.009522418365102382</v>
@@ -715,7 +715,7 @@
         <v>3.634649569870736E-06</v>
       </c>
       <c r="L7">
-        <v>1.712788258061882E-05</v>
+        <v>1.712788258061881E-05</v>
       </c>
       <c r="M7">
         <v>9.489522725836744E+36</v>
@@ -756,7 +756,7 @@
         <v>5.774556392650269E+21</v>
       </c>
       <c r="L8">
-        <v>2.72119559113351E+22</v>
+        <v>2.721195591133509E+22</v>
       </c>
       <c r="M8">
         <v>5972941876.131041</v>
@@ -797,7 +797,7 @@
         <v>1.157176338201145E+31</v>
       </c>
       <c r="L9">
-        <v>5.453065024500984E+31</v>
+        <v>5.453065024500983E+31</v>
       </c>
       <c r="M9">
         <v>2.980625212865833</v>
